--- a/2025/Производство_2025.xlsx
+++ b/2025/Производство_2025.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TimeTrackingSystem\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E0469-0B1B-431F-B092-0673E6C533C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D225FCA7-0566-440E-8838-609876B22587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Март" sheetId="2" r:id="rId2"/>
     <sheet name="Апрель" sheetId="3" r:id="rId3"/>
+    <sheet name="Июнь" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="55">
   <si>
     <t>Сотрудник</t>
   </si>
@@ -184,6 +185,9 @@
   </si>
   <si>
     <t>Атамуратов Шерзод</t>
+  </si>
+  <si>
+    <t>Дмитриев Роман</t>
   </si>
 </sst>
 </file>
@@ -1904,15 +1908,14 @@
   </sheetPr>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="18" width="5.7109375" style="1" customWidth="1"/>
-    <col min="19" max="31" width="5.7109375" customWidth="1"/>
+    <col min="2" max="31" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -3376,6 +3379,1367 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AG17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AE17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="23" width="5.7109375" style="1" customWidth="1"/>
+    <col min="24" max="31" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>13</v>
+      </c>
+      <c r="R2" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2">
+        <v>12</v>
+      </c>
+      <c r="V2" s="2">
+        <v>12</v>
+      </c>
+      <c r="W2" s="2">
+        <v>12</v>
+      </c>
+      <c r="X2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF2">
+        <v>138</v>
+      </c>
+      <c r="AG2">
+        <v>69690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2">
+        <v>12</v>
+      </c>
+      <c r="R3" s="2">
+        <v>12</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2">
+        <v>12</v>
+      </c>
+      <c r="V3" s="2">
+        <v>12</v>
+      </c>
+      <c r="W3" s="2">
+        <v>12</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF3">
+        <v>181</v>
+      </c>
+      <c r="AG3">
+        <v>91405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>12</v>
+      </c>
+      <c r="R4" s="2">
+        <v>12</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2">
+        <v>12</v>
+      </c>
+      <c r="V4" s="2">
+        <v>12</v>
+      </c>
+      <c r="W4" s="2">
+        <v>12</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AF4">
+        <v>150.5</v>
+      </c>
+      <c r="AG4">
+        <v>81270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2">
+        <v>12</v>
+      </c>
+      <c r="R5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>12</v>
+      </c>
+      <c r="V5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="W5" s="2">
+        <v>12</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="AF5">
+        <v>198</v>
+      </c>
+      <c r="AG5">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
+        <v>13</v>
+      </c>
+      <c r="R6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2">
+        <v>12</v>
+      </c>
+      <c r="V6" s="2">
+        <v>12</v>
+      </c>
+      <c r="W6" s="2">
+        <v>12</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF6">
+        <v>158</v>
+      </c>
+      <c r="AG6">
+        <v>79790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>12</v>
+      </c>
+      <c r="M7" s="2">
+        <v>12</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2">
+        <v>12</v>
+      </c>
+      <c r="R7" s="2">
+        <v>12</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="V7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="W7" s="2">
+        <v>12</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AF7">
+        <v>179</v>
+      </c>
+      <c r="AG7">
+        <v>90395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2">
+        <v>12</v>
+      </c>
+      <c r="P8" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
+        <v>12</v>
+      </c>
+      <c r="T8" s="2">
+        <v>12</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8">
+        <v>136</v>
+      </c>
+      <c r="AG8">
+        <v>68680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2">
+        <v>12</v>
+      </c>
+      <c r="P9" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>12</v>
+      </c>
+      <c r="T9" s="2">
+        <v>12</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9">
+        <v>157.5</v>
+      </c>
+      <c r="AG9">
+        <v>79537.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>13</v>
+      </c>
+      <c r="U10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AF10">
+        <v>116.5</v>
+      </c>
+      <c r="AG10">
+        <v>44852.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2">
+        <v>12</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="2"/>
+      <c r="AF11">
+        <v>89</v>
+      </c>
+      <c r="AG11">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2">
+        <v>12</v>
+      </c>
+      <c r="M12" s="2">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>12</v>
+      </c>
+      <c r="P12" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="T12" s="2">
+        <v>13</v>
+      </c>
+      <c r="U12" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12">
+        <v>223</v>
+      </c>
+      <c r="AG12">
+        <v>120420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>12</v>
+      </c>
+      <c r="O13" s="2">
+        <v>12</v>
+      </c>
+      <c r="P13" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2">
+        <v>12</v>
+      </c>
+      <c r="T13" s="2">
+        <v>12</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13">
+        <v>142</v>
+      </c>
+      <c r="AG13">
+        <v>71710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>12</v>
+      </c>
+      <c r="L14" s="2">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
+        <v>12</v>
+      </c>
+      <c r="R14" s="2">
+        <v>12</v>
+      </c>
+      <c r="S14" s="2">
+        <v>12</v>
+      </c>
+      <c r="T14" s="2">
+        <v>12</v>
+      </c>
+      <c r="U14" s="2">
+        <v>9</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AF14">
+        <v>219</v>
+      </c>
+      <c r="AG14">
+        <v>110595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>14</v>
+      </c>
+      <c r="N15" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="R15" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S15" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="T15" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="U15" s="2">
+        <v>12</v>
+      </c>
+      <c r="V15" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="W15" s="2">
+        <v>13</v>
+      </c>
+      <c r="X15" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF15">
+        <v>353.5</v>
+      </c>
+      <c r="AG15">
+        <v>91910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>14</v>
+      </c>
+      <c r="N16" s="2">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2">
+        <v>13</v>
+      </c>
+      <c r="P16" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="R16" s="2">
+        <v>14</v>
+      </c>
+      <c r="S16" s="2">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2">
+        <v>14</v>
+      </c>
+      <c r="U16" s="2">
+        <v>14</v>
+      </c>
+      <c r="V16" s="2">
+        <v>14</v>
+      </c>
+      <c r="W16" s="2">
+        <v>14</v>
+      </c>
+      <c r="X16" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF16">
+        <v>399.5</v>
+      </c>
+      <c r="AG16">
+        <v>103870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2">
+        <v>14</v>
+      </c>
+      <c r="L17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="M17" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N17" s="2">
+        <v>14</v>
+      </c>
+      <c r="O17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>14</v>
+      </c>
+      <c r="R17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="T17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="U17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="V17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="W17" s="2">
+        <v>13</v>
+      </c>
+      <c r="X17" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>13</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="AF17">
+        <v>416</v>
+      </c>
+      <c r="AG17">
+        <v>139360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>